--- a/data/trans_orig/P57B6_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P57B6_2023-Edad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>256144</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>224333</v>
+        <v>225178</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>284207</v>
+        <v>286832</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.6337301943269179</v>
+        <v>0.633730194326918</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.555028150809166</v>
+        <v>0.5571174958013729</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7031615883427441</v>
+        <v>0.7096566095402813</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>112</v>
@@ -762,19 +762,19 @@
         <v>192939</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>164881</v>
+        <v>165269</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>218561</v>
+        <v>219870</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.5322268751160041</v>
+        <v>0.532226875116004</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4548279933275916</v>
+        <v>0.4558987066362871</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6029058574074236</v>
+        <v>0.6065185330066827</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>223</v>
@@ -783,19 +783,19 @@
         <v>449082</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>409891</v>
+        <v>409391</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>491176</v>
+        <v>488516</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5857369875787927</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5346205670535313</v>
+        <v>0.5339677222391201</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6406394962537169</v>
+        <v>0.637170774002228</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>120256</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>93097</v>
+        <v>94760</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>150837</v>
+        <v>151159</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2975280232003947</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2303333779867555</v>
+        <v>0.2344466366693819</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3731891512746637</v>
+        <v>0.3739859534143929</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>69</v>
@@ -833,19 +833,19 @@
         <v>123110</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>99455</v>
+        <v>99069</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>150140</v>
+        <v>147361</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3396029412817057</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2743485299603777</v>
+        <v>0.2732855100387653</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4141648356733214</v>
+        <v>0.4064985585798973</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>117</v>
@@ -854,19 +854,19 @@
         <v>243366</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>204827</v>
+        <v>207518</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>282708</v>
+        <v>280763</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3174220548250243</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2671560036208502</v>
+        <v>0.2706654563356304</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3687359605026004</v>
+        <v>0.3661980432930096</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>27784</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>14781</v>
+        <v>14240</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>47706</v>
+        <v>47773</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.06874178247268743</v>
+        <v>0.06874178247268745</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.03656951939459205</v>
+        <v>0.03523256502303491</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1180308463839622</v>
+        <v>0.1181961227562511</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>23</v>
@@ -904,19 +904,19 @@
         <v>41997</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>27759</v>
+        <v>27620</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>63736</v>
+        <v>61276</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1158490755869317</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.07657397519216169</v>
+        <v>0.07619059616395894</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1758172235041165</v>
+        <v>0.1690313810229151</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>35</v>
@@ -925,19 +925,19 @@
         <v>69781</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>49696</v>
+        <v>47274</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>98422</v>
+        <v>95829</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.09101524185659862</v>
+        <v>0.09101524185659864</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.06481888659095504</v>
+        <v>0.06165880326751263</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1283714799235114</v>
+        <v>0.1249897880957526</v>
       </c>
     </row>
     <row r="7">
@@ -967,19 +967,19 @@
         <v>4467</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1064</v>
+        <v>1039</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>13016</v>
+        <v>12049</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01232110801535846</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.002935429004553737</v>
+        <v>0.002865759103982936</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03590458676958305</v>
+        <v>0.03323883601094173</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>3</v>
@@ -991,16 +991,16 @@
         <v>1062</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>13443</v>
+        <v>14381</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.005825715739584415</v>
+        <v>0.005825715739584413</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.00138478377200283</v>
+        <v>0.001385596324332674</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01753303356958338</v>
+        <v>0.01875729203795693</v>
       </c>
     </row>
     <row r="8">
@@ -1092,19 +1092,19 @@
         <v>207984</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>178298</v>
+        <v>180236</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>233613</v>
+        <v>236046</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.436126333052416</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3738775572923785</v>
+        <v>0.3779406617481126</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4898681664092025</v>
+        <v>0.4949691058190474</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>183</v>
@@ -1113,19 +1113,19 @@
         <v>198414</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>173340</v>
+        <v>174987</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>221966</v>
+        <v>222806</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.395970286069563</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.3459308296627718</v>
+        <v>0.3492180291323194</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.442972705331212</v>
+        <v>0.4446490402935881</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>311</v>
@@ -1134,19 +1134,19 @@
         <v>406398</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>369830</v>
+        <v>371246</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>442242</v>
+        <v>445540</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4155516251632826</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3781596240917698</v>
+        <v>0.3796075168311609</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4522023981947732</v>
+        <v>0.455575206598333</v>
       </c>
     </row>
     <row r="10">
@@ -1163,19 +1163,19 @@
         <v>205152</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>177175</v>
+        <v>175912</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>235251</v>
+        <v>234688</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4301877150651366</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3715226261164468</v>
+        <v>0.3688740901964672</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4933027854679364</v>
+        <v>0.4921209193495469</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>183</v>
@@ -1184,19 +1184,19 @@
         <v>199843</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>175483</v>
+        <v>176804</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>222571</v>
+        <v>223629</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3988214220812739</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3502078036274928</v>
+        <v>0.3528434762905603</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4441791881684146</v>
+        <v>0.4462919432222771</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>316</v>
@@ -1205,19 +1205,19 @@
         <v>404995</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>369693</v>
+        <v>370828</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>443833</v>
+        <v>439417</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4141166033846587</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3780195365555135</v>
+        <v>0.379180669802157</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.45382913785673</v>
+        <v>0.4493140437369432</v>
       </c>
     </row>
     <row r="11">
@@ -1234,19 +1234,19 @@
         <v>47979</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>33218</v>
+        <v>31919</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>66012</v>
+        <v>64929</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1006078926296021</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.06965613076528482</v>
+        <v>0.06693071141367281</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1384213277048691</v>
+        <v>0.1361507145990058</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>84</v>
@@ -1255,19 +1255,19 @@
         <v>91055</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>73709</v>
+        <v>74228</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>113611</v>
+        <v>109447</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1817159425050432</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1470998906398774</v>
+        <v>0.1481357802592293</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2267300505747386</v>
+        <v>0.2184210755589375</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>116</v>
@@ -1276,19 +1276,19 @@
         <v>139034</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>116855</v>
+        <v>116972</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>165213</v>
+        <v>166422</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.142165131427461</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1194873344894942</v>
+        <v>0.1196069105669886</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1689344533349162</v>
+        <v>0.1701707896129415</v>
       </c>
     </row>
     <row r="12">
@@ -1305,19 +1305,19 @@
         <v>15775</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7541</v>
+        <v>7604</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>29076</v>
+        <v>30909</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.03307805925284524</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01581185799089236</v>
+        <v>0.0159453616685935</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.06096995761417925</v>
+        <v>0.06481368753210169</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>10</v>
@@ -1326,19 +1326,19 @@
         <v>11772</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>5938</v>
+        <v>5932</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>20496</v>
+        <v>20847</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02349234934411986</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01185113228677459</v>
+        <v>0.01183865290175684</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.04090306666057993</v>
+        <v>0.04160289189379342</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>19</v>
@@ -1347,19 +1347,19 @@
         <v>27546</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>15996</v>
+        <v>16190</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>43349</v>
+        <v>42938</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.0281666400245977</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01635642897432538</v>
+        <v>0.0165549369895392</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.04432500361769878</v>
+        <v>0.0439052001661943</v>
       </c>
     </row>
     <row r="13">
@@ -1451,19 +1451,19 @@
         <v>288698</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>260550</v>
+        <v>257519</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>314068</v>
+        <v>313953</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.4658230072162763</v>
+        <v>0.4658230072162764</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4204058783162185</v>
+        <v>0.4155151190755704</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5067584255756764</v>
+        <v>0.5065733468814356</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>285</v>
@@ -1472,19 +1472,19 @@
         <v>220833</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>199296</v>
+        <v>201451</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>241100</v>
+        <v>240900</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.3554372921491393</v>
+        <v>0.3554372921491394</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3207729940275864</v>
+        <v>0.3242410952417866</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.388057561613567</v>
+        <v>0.3877348176624971</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>525</v>
@@ -1493,19 +1493,19 @@
         <v>509531</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>476785</v>
+        <v>473515</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>543812</v>
+        <v>540811</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4105616103944154</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3841759541971003</v>
+        <v>0.3815415242064022</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4381842926510204</v>
+        <v>0.4357659276201832</v>
       </c>
     </row>
     <row r="15">
@@ -1522,19 +1522,19 @@
         <v>238033</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>213257</v>
+        <v>213542</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>264464</v>
+        <v>265657</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.384074850928611</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3440970693022222</v>
+        <v>0.3445574472728586</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4267209732031359</v>
+        <v>0.4286459786019426</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>365</v>
@@ -1543,19 +1543,19 @@
         <v>259885</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>239459</v>
+        <v>241860</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>283284</v>
+        <v>282342</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.4182927872723707</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.385415409566269</v>
+        <v>0.3892802600743042</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.45595382352388</v>
+        <v>0.4544372625467207</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>586</v>
@@ -1564,19 +1564,19 @@
         <v>497919</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>464239</v>
+        <v>464073</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>529540</v>
+        <v>530657</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.4012050652644751</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.3740668145815532</v>
+        <v>0.3739332321947515</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.4266844119718764</v>
+        <v>0.4275846228110063</v>
       </c>
     </row>
     <row r="16">
@@ -1593,19 +1593,19 @@
         <v>74595</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>59343</v>
+        <v>59228</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>92163</v>
+        <v>93218</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.1203622804338916</v>
+        <v>0.1203622804338917</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09575157442699896</v>
+        <v>0.09556567509466166</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1487084217079462</v>
+        <v>0.1504102521907225</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>161</v>
@@ -1614,19 +1614,19 @@
         <v>114413</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>99022</v>
+        <v>97973</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>132584</v>
+        <v>130234</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1841516739981487</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1593783250053347</v>
+        <v>0.1576907185248585</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2133981264379565</v>
+        <v>0.2096154798744455</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>230</v>
@@ -1635,19 +1635,19 @@
         <v>189009</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>164185</v>
+        <v>165987</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>212450</v>
+        <v>216493</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1522965845115189</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1322941668483036</v>
+        <v>0.1337467174733559</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1711842148401693</v>
+        <v>0.1744419589451983</v>
       </c>
     </row>
     <row r="17">
@@ -1664,19 +1664,19 @@
         <v>18432</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>10179</v>
+        <v>10219</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>29719</v>
+        <v>30011</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02973986142122103</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01642476880258109</v>
+        <v>0.01648901193521607</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.04795277530552002</v>
+        <v>0.04842402523451512</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>34</v>
@@ -1685,19 +1685,19 @@
         <v>26168</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>18719</v>
+        <v>18806</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>35882</v>
+        <v>36897</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.04211824658034111</v>
+        <v>0.04211824658034112</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03012867327601888</v>
+        <v>0.03026893103894825</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.05775268877532569</v>
+        <v>0.05938670276300576</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>49</v>
@@ -1706,19 +1706,19 @@
         <v>44600</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>31597</v>
+        <v>32873</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>57835</v>
+        <v>59335</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03593673982959054</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02545946570583646</v>
+        <v>0.02648828418220208</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.0466013779170736</v>
+        <v>0.04781012892104081</v>
       </c>
     </row>
     <row r="18">
@@ -1810,19 +1810,19 @@
         <v>271543</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>244759</v>
+        <v>244962</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>298569</v>
+        <v>297258</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3880937291679554</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3498137466666545</v>
+        <v>0.3501037517256451</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4267209982286134</v>
+        <v>0.4248460149196782</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>308</v>
@@ -1831,19 +1831,19 @@
         <v>211884</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>194277</v>
+        <v>194308</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>233093</v>
+        <v>231084</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2884836550513329</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2645107673329962</v>
+        <v>0.2645530729875628</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3173592536486965</v>
+        <v>0.3146247001520432</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>552</v>
@@ -1852,19 +1852,19 @@
         <v>483427</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>451210</v>
+        <v>450711</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>518756</v>
+        <v>519310</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.3370804104429318</v>
+        <v>0.3370804104429319</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3146163269196744</v>
+        <v>0.3142684305443937</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3617144224586862</v>
+        <v>0.3621008557853352</v>
       </c>
     </row>
     <row r="20">
@@ -1881,19 +1881,19 @@
         <v>308586</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>284889</v>
+        <v>282863</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>336092</v>
+        <v>335604</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4410374738828101</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4071680523584485</v>
+        <v>0.4042736545307255</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4803490982651136</v>
+        <v>0.4796517247760419</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>545</v>
@@ -1902,19 +1902,19 @@
         <v>339896</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>319240</v>
+        <v>317514</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>361431</v>
+        <v>359082</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4627739831130768</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4346495826703885</v>
+        <v>0.4323005830255838</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4920932048359546</v>
+        <v>0.488895072139271</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>849</v>
@@ -1923,19 +1923,19 @@
         <v>648483</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>614546</v>
+        <v>611749</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>686230</v>
+        <v>681734</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.452169394857337</v>
+        <v>0.4521693948573371</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4285064431741939</v>
+        <v>0.4265556875049415</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4784892033749382</v>
+        <v>0.4753547620254777</v>
       </c>
     </row>
     <row r="21">
@@ -1952,19 +1952,19 @@
         <v>106191</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>89107</v>
+        <v>87335</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>125182</v>
+        <v>126332</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1517697855064359</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1273539614202923</v>
+        <v>0.1248208074394952</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1789126901540155</v>
+        <v>0.1805562010111088</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>243</v>
@@ -1973,19 +1973,19 @@
         <v>155082</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>138619</v>
+        <v>138234</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>174229</v>
+        <v>173748</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2111464700854608</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1887312163105451</v>
+        <v>0.1882074896166177</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2372158856835269</v>
+        <v>0.2365609068620438</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>346</v>
@@ -1994,19 +1994,19 @@
         <v>261273</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>234124</v>
+        <v>238178</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>289521</v>
+        <v>288174</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.1821783738156732</v>
+        <v>0.1821783738156733</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1632485969251508</v>
+        <v>0.1660752490477352</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2018747709646177</v>
+        <v>0.2009356689041731</v>
       </c>
     </row>
     <row r="22">
@@ -2023,19 +2023,19 @@
         <v>13363</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>6794</v>
+        <v>6755</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>21590</v>
+        <v>22016</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01909901144279862</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.009710663152912243</v>
+        <v>0.009654570490376638</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03085715399860808</v>
+        <v>0.03146637658822585</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>41</v>
@@ -2044,19 +2044,19 @@
         <v>27613</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>19447</v>
+        <v>20098</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>36363</v>
+        <v>35712</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03759589175012941</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02647697095988453</v>
+        <v>0.02736401787164739</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04950810556675826</v>
+        <v>0.04862263724847535</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>54</v>
@@ -2065,19 +2065,19 @@
         <v>40977</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>30427</v>
+        <v>30751</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>54795</v>
+        <v>52588</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02857182088405789</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02121602092056441</v>
+        <v>0.02144158860485008</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03820725035878172</v>
+        <v>0.03666799126539529</v>
       </c>
     </row>
     <row r="23">
@@ -2169,19 +2169,19 @@
         <v>217459</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>195592</v>
+        <v>194641</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>240617</v>
+        <v>241334</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.3572215114797063</v>
+        <v>0.3572215114797062</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3212998419587901</v>
+        <v>0.3197370551500727</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3952628666659583</v>
+        <v>0.3964409417134605</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>257</v>
@@ -2190,19 +2190,19 @@
         <v>163765</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>146802</v>
+        <v>147295</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>182748</v>
+        <v>182159</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2699083116551428</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2419520848079564</v>
+        <v>0.2427630970983004</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3011960386557069</v>
+        <v>0.3002243871489111</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>482</v>
@@ -2211,19 +2211,19 @@
         <v>381224</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>353264</v>
+        <v>352454</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>411567</v>
+        <v>412511</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3136370904723358</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2906342379017545</v>
+        <v>0.2899679323044167</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3386012343878988</v>
+        <v>0.3393779160021932</v>
       </c>
     </row>
     <row r="25">
@@ -2240,19 +2240,19 @@
         <v>278588</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>255411</v>
+        <v>255844</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>303807</v>
+        <v>304229</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.4576385703806868</v>
+        <v>0.4576385703806867</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4195657599433325</v>
+        <v>0.4202765286971431</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.499064908226893</v>
+        <v>0.4997586268053139</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>454</v>
@@ -2261,19 +2261,19 @@
         <v>268675</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>250148</v>
+        <v>249926</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>287513</v>
+        <v>285704</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.4428161542845648</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4122798976878846</v>
+        <v>0.4119151101532497</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.473863717939461</v>
+        <v>0.4708819911848874</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>763</v>
@@ -2282,19 +2282,19 @@
         <v>547263</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>515072</v>
+        <v>514184</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>574285</v>
+        <v>575344</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.4502396155287532</v>
+        <v>0.4502396155287531</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4237555666210088</v>
+        <v>0.4230249569615027</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4724709362341916</v>
+        <v>0.4733420910518373</v>
       </c>
     </row>
     <row r="26">
@@ -2311,19 +2311,19 @@
         <v>96244</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>79449</v>
+        <v>80289</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>114077</v>
+        <v>113788</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1581003143856834</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1305120572452147</v>
+        <v>0.1318911072212931</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.187394422556012</v>
+        <v>0.1869207288922684</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>245</v>
@@ -2332,19 +2332,19 @@
         <v>145713</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>128873</v>
+        <v>129841</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>161795</v>
+        <v>161162</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2401560630448395</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2124018964518924</v>
+        <v>0.2139963438288882</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2666617860575285</v>
+        <v>0.2656181751648448</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>356</v>
@@ -2353,19 +2353,19 @@
         <v>241956</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>220314</v>
+        <v>219463</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>267338</v>
+        <v>266005</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1990603559695621</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1812551161388118</v>
+        <v>0.1805547511845104</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2199421765511546</v>
+        <v>0.218845319259604</v>
       </c>
     </row>
     <row r="27">
@@ -2382,19 +2382,19 @@
         <v>16460</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>9840</v>
+        <v>9674</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>26139</v>
+        <v>25465</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.02703960375392359</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.01616476568983627</v>
+        <v>0.0158910372011491</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.0429394358642785</v>
+        <v>0.04183151167577282</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>43</v>
@@ -2403,19 +2403,19 @@
         <v>28589</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>20897</v>
+        <v>20238</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>38054</v>
+        <v>37366</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.0471194710154529</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.03444077557691527</v>
+        <v>0.0333557435988861</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.06271920887024418</v>
+        <v>0.0615838586747388</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>60</v>
@@ -2424,19 +2424,19 @@
         <v>45050</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>35173</v>
+        <v>35750</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>56903</v>
+        <v>58296</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.03706293802934892</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.02893763019425787</v>
+        <v>0.02941191793991074</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.04681451280863929</v>
+        <v>0.0479604663325407</v>
       </c>
     </row>
     <row r="28">
@@ -2528,19 +2528,19 @@
         <v>146528</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>131363</v>
+        <v>130938</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>163238</v>
+        <v>163042</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.3607366751323338</v>
+        <v>0.3607366751323337</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3234018850964474</v>
+        <v>0.3223552117029246</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4018739279430124</v>
+        <v>0.4013904664748116</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>231</v>
@@ -2549,19 +2549,19 @@
         <v>124878</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>112065</v>
+        <v>110224</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>139249</v>
+        <v>138954</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.2843535734015284</v>
+        <v>0.2843535734015283</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2551758314385598</v>
+        <v>0.2509846329230461</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3170764500720641</v>
+        <v>0.3164040554418909</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>433</v>
@@ -2570,19 +2570,19 @@
         <v>271407</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>249283</v>
+        <v>249556</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>293882</v>
+        <v>294458</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3210554024491177</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2948851170448293</v>
+        <v>0.295207732360442</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3476418993352426</v>
+        <v>0.3483230412417097</v>
       </c>
     </row>
     <row r="30">
@@ -2599,19 +2599,19 @@
         <v>190765</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>173258</v>
+        <v>173721</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>207542</v>
+        <v>208482</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.469642810038969</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.4265425707009688</v>
+        <v>0.4276819092509363</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.5109467759305484</v>
+        <v>0.5132585630319362</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>380</v>
@@ -2620,19 +2620,19 @@
         <v>204163</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>187909</v>
+        <v>187592</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>219050</v>
+        <v>219013</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.4648877022618269</v>
+        <v>0.4648877022618268</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.4278764451156888</v>
+        <v>0.4271553594410512</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4987852598008833</v>
+        <v>0.4987017246255239</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>645</v>
@@ -2641,19 +2641,19 @@
         <v>394928</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>372777</v>
+        <v>372025</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>420618</v>
+        <v>417486</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.4671725159023436</v>
+        <v>0.4671725159023438</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.4409697042199281</v>
+        <v>0.4400794259567067</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.4975619721582978</v>
+        <v>0.4938565027586306</v>
       </c>
     </row>
     <row r="31">
@@ -2670,19 +2670,19 @@
         <v>62142</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>51708</v>
+        <v>50239</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>75833</v>
+        <v>74581</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.152986569885802</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1273004251433225</v>
+        <v>0.1236835295233548</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1866936979719896</v>
+        <v>0.1836097983930804</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>189</v>
@@ -2691,19 +2691,19 @@
         <v>94995</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>83583</v>
+        <v>83387</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>107972</v>
+        <v>107988</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2163079777085188</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1903229157275346</v>
+        <v>0.1898757017609902</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2458566622820634</v>
+        <v>0.245892221561501</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>282</v>
@@ -2712,19 +2712,19 @@
         <v>157137</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>141090</v>
+        <v>139467</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>176774</v>
+        <v>173906</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.1858822496050374</v>
+        <v>0.1858822496050375</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.166900066250113</v>
+        <v>0.164979859039579</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2091118479477796</v>
+        <v>0.2057190245926364</v>
       </c>
     </row>
     <row r="32">
@@ -2741,19 +2741,19 @@
         <v>6757</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>3006</v>
+        <v>3069</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>12624</v>
+        <v>12024</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01663394494289527</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.007401126661149441</v>
+        <v>0.007555113412764226</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.03107815993584671</v>
+        <v>0.02960070491758405</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>27</v>
@@ -2762,19 +2762,19 @@
         <v>15130</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>10269</v>
+        <v>10327</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>21594</v>
+        <v>21628</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.03445074662812606</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.02338252825948201</v>
+        <v>0.02351429970580511</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.04917128591623965</v>
+        <v>0.04924870843897074</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>36</v>
@@ -2783,19 +2783,19 @@
         <v>21886</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>15708</v>
+        <v>15933</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>29892</v>
+        <v>29863</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.02588983204350112</v>
+        <v>0.02588983204350113</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01858198885501257</v>
+        <v>0.01884815456124642</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.03536016520442183</v>
+        <v>0.03532592192172786</v>
       </c>
     </row>
     <row r="33">
@@ -2887,19 +2887,19 @@
         <v>96814</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>83332</v>
+        <v>84866</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>111677</v>
+        <v>112609</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.3148558204934109</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.2710106205624608</v>
+        <v>0.2760001083759294</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.3631949242111175</v>
+        <v>0.366225321455743</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>154</v>
@@ -2908,19 +2908,19 @@
         <v>86806</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>73301</v>
+        <v>75281</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>100027</v>
+        <v>101978</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1895475824364174</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1600591260318049</v>
+        <v>0.1643816658588239</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2184170513059434</v>
+        <v>0.222677202155123</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>289</v>
@@ -2929,19 +2929,19 @@
         <v>183620</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>167650</v>
+        <v>165314</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>205557</v>
+        <v>203672</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.23988458879879</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.219021742533787</v>
+        <v>0.2159693732264642</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2685440577800166</v>
+        <v>0.2660807179329498</v>
       </c>
     </row>
     <row r="35">
@@ -2958,19 +2958,19 @@
         <v>143405</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>129689</v>
+        <v>129625</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>156603</v>
+        <v>157561</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>0.4663799050520035</v>
+        <v>0.4663799050520034</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.4217708637700771</v>
+        <v>0.4215651267426275</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.5093008587510889</v>
+        <v>0.5124166409906531</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>419</v>
@@ -2979,19 +2979,19 @@
         <v>221006</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>204012</v>
+        <v>205222</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>236467</v>
+        <v>237158</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.4825820096522698</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.445475277781179</v>
+        <v>0.4481170109944344</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.5163436677358705</v>
+        <v>0.517852846082314</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>635</v>
@@ -3000,19 +3000,19 @@
         <v>364411</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>343491</v>
+        <v>340964</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>386818</v>
+        <v>385031</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.4760735353891772</v>
+        <v>0.4760735353891771</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.4487428779987871</v>
+        <v>0.4454419563719395</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.5053471612211036</v>
+        <v>0.5030125320089243</v>
       </c>
     </row>
     <row r="36">
@@ -3029,19 +3029,19 @@
         <v>60502</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>49827</v>
+        <v>49744</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>71568</v>
+        <v>72702</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1967638569771456</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.162047521961862</v>
+        <v>0.1617779361470799</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.232750879032411</v>
+        <v>0.2364414369052824</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>268</v>
@@ -3050,19 +3050,19 @@
         <v>136501</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>123457</v>
+        <v>121858</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>151568</v>
+        <v>151818</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2980603133525692</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2695766841737263</v>
+        <v>0.2660862332786678</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3309596583119951</v>
+        <v>0.3315049081410769</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>361</v>
@@ -3071,19 +3071,19 @@
         <v>197003</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>177452</v>
+        <v>178928</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>214842</v>
+        <v>216860</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2573689713616591</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2318268338240111</v>
+        <v>0.233754472913029</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2806739849594992</v>
+        <v>0.283309792741478</v>
       </c>
     </row>
     <row r="37">
@@ -3100,19 +3100,19 @@
         <v>6765</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>3170</v>
+        <v>3338</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>12354</v>
+        <v>12003</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.02200041747744008</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.01030797448390482</v>
+        <v>0.01085524395403398</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.04017774332180826</v>
+        <v>0.03903470762716146</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>26</v>
@@ -3121,19 +3121,19 @@
         <v>13652</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>9119</v>
+        <v>9408</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>19898</v>
+        <v>19765</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.02981009455874355</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.01991224457423793</v>
+        <v>0.02054211969202534</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.04344791389453799</v>
+        <v>0.04315745086554156</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>36</v>
@@ -3142,19 +3142,19 @@
         <v>20417</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>14811</v>
+        <v>14638</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>28868</v>
+        <v>27649</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.02667290445037376</v>
+        <v>0.02667290445037375</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.01934927280056256</v>
+        <v>0.01912348505506187</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.03771340168822274</v>
+        <v>0.03612118347173164</v>
       </c>
     </row>
     <row r="38">
@@ -3246,19 +3246,19 @@
         <v>1485169</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>1426737</v>
+        <v>1419607</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>1551023</v>
+        <v>1548357</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.4215704317161431</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.4049842569062073</v>
+        <v>0.4029603291262993</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.4402633575936123</v>
+        <v>0.4395065435480799</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>1530</v>
@@ -3267,19 +3267,19 @@
         <v>1199519</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>1150080</v>
+        <v>1145526</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>1254317</v>
+        <v>1250241</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.3221705131696589</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.308892026134402</v>
+        <v>0.307668705993354</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.3368881711608193</v>
+        <v>0.3357934296357123</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>2815</v>
@@ -3288,19 +3288,19 @@
         <v>2684688</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>2602899</v>
+        <v>2601237</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>2768980</v>
+        <v>2770119</v>
       </c>
       <c r="U39" s="6" t="n">
-        <v>0.3704966622064528</v>
+        <v>0.3704966622064529</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.3592094237287112</v>
+        <v>0.3589800408657222</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.3821292174075759</v>
+        <v>0.3822863725558159</v>
       </c>
     </row>
     <row r="40">
@@ -3317,19 +3317,19 @@
         <v>1484787</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>1416220</v>
+        <v>1416194</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>1545497</v>
+        <v>1546052</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>0.4214618732613452</v>
+        <v>0.4214618732613453</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.401999032405469</v>
+        <v>0.4019915594242119</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.4386946152634701</v>
+        <v>0.438852249817088</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>2415</v>
@@ -3338,19 +3338,19 @@
         <v>1616578</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>1567145</v>
+        <v>1561189</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>1670211</v>
+        <v>1671086</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.4341853946161142</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.4209085492643319</v>
+        <v>0.4193087438746805</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.4485901741428341</v>
+        <v>0.448825218317553</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>3911</v>
@@ -3359,19 +3359,19 @@
         <v>3101365</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>3023974</v>
+        <v>3021059</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>3186452</v>
+        <v>3186346</v>
       </c>
       <c r="U40" s="6" t="n">
-        <v>0.4279994862345509</v>
+        <v>0.427999486234551</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.4173193058018898</v>
+        <v>0.4169170301871764</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.439741819037162</v>
+        <v>0.4397271443291786</v>
       </c>
     </row>
     <row r="41">
@@ -3388,19 +3388,19 @@
         <v>475437</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>434232</v>
+        <v>432977</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>517948</v>
+        <v>519071</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1349545247891886</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1232582176166565</v>
+        <v>0.1229020532901855</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1470214239507792</v>
+        <v>0.1473401443515666</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>1213</v>
@@ -3409,19 +3409,19 @@
         <v>779756</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>737792</v>
+        <v>737183</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>823444</v>
+        <v>826313</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.209429186210488</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.1981583328914097</v>
+        <v>0.1979946866561285</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.2211629265897101</v>
+        <v>0.2219335740052676</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>1726</v>
@@ -3430,19 +3430,19 @@
         <v>1255193</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>1195976</v>
+        <v>1198238</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>1319885</v>
+        <v>1317888</v>
       </c>
       <c r="U41" s="6" t="n">
-        <v>0.1732211727640043</v>
+        <v>0.1732211727640044</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1650490238353145</v>
+        <v>0.1653611315555578</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1821488198656609</v>
+        <v>0.181873272637161</v>
       </c>
     </row>
     <row r="42">
@@ -3459,19 +3459,19 @@
         <v>77551</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>61456</v>
+        <v>61759</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>98836</v>
+        <v>96674</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>0.02201317023332309</v>
+        <v>0.0220131702333231</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.01744449830003112</v>
+        <v>0.01753039192026387</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.02805490689302049</v>
+        <v>0.027441228551786</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>184</v>
@@ -3480,19 +3480,19 @@
         <v>127390</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>110608</v>
+        <v>109273</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>148406</v>
+        <v>147012</v>
       </c>
       <c r="N42" s="6" t="n">
-        <v>0.03421490600373888</v>
+        <v>0.03421490600373889</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.02970731289286047</v>
+        <v>0.0293489535229096</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.0398591982465193</v>
+        <v>0.03948505189985661</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>257</v>
@@ -3501,19 +3501,19 @@
         <v>204942</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>178743</v>
+        <v>178177</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>233375</v>
+        <v>234549</v>
       </c>
       <c r="U42" s="6" t="n">
-        <v>0.02828267879499184</v>
+        <v>0.02828267879499185</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.02466721172958633</v>
+        <v>0.02458903746453586</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.03220660860183246</v>
+        <v>0.03236856126839347</v>
       </c>
     </row>
     <row r="43">
